--- a/InputData/hydgn/HPS/Hydrogen Production Shareweights.xlsx
+++ b/InputData/hydgn/HPS/Hydrogen Production Shareweights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\hydgn\HPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE673AF-6201-4D95-ADF6-7E1C527941CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7090C818-F3C4-450C-8193-71E4BC5E7E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58950" yWindow="2055" windowWidth="24735" windowHeight="14400" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="728" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -910,7 +910,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -960,6 +960,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="85">
     <cellStyle name="20% - Accent1" xfId="25" builtinId="30" customBuiltin="1"/>
@@ -3367,7 +3368,7 @@
   <dimension ref="A1:AL16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3756,7 +3757,7 @@
         <v>0.05</v>
       </c>
       <c r="G10" s="5" t="str">
-        <f>IF(E10=F10,"n/a",IF(OR(C10="battery electric vehicle",C10="natural gas vehicle",C10="plugin hybrid vehicle"),"s-curve","linear"))</f>
+        <f t="shared" ref="G10:G14" si="1">IF(E10=F10,"n/a",IF(OR(C10="electrolysis with guaranteed clean electricity",C10="natural gas reforming with CCS"),"s-curve","linear"))</f>
         <v>n/a</v>
       </c>
       <c r="I10" s="21">
@@ -3894,11 +3895,11 @@
         <v>1</v>
       </c>
       <c r="G11" s="5" t="str">
-        <f>IF(E11=F11,"n/a",IF(OR(C11="battery electric vehicle",C11="natural gas vehicle",C11="plugin hybrid vehicle"),"s-curve","linear"))</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
       <c r="I11" s="15">
-        <f t="shared" ref="I11:I16" si="1">E11</f>
+        <f t="shared" ref="I11:I16" si="2">E11</f>
         <v>1</v>
       </c>
       <c r="J11">
@@ -4032,11 +4033,11 @@
         <v>0</v>
       </c>
       <c r="G12" s="5" t="str">
-        <f>IF(E12=F12,"n/a",IF(OR(C12="battery electric vehicle",C12="natural gas vehicle",C12="plugin hybrid vehicle"),"s-curve","linear"))</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
       <c r="I12" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J12" s="15">
@@ -4044,115 +4045,115 @@
         <v>0</v>
       </c>
       <c r="K12" s="15">
-        <f t="shared" ref="K12:AL12" si="2">J12</f>
+        <f t="shared" ref="K12:AL12" si="3">J12</f>
         <v>0</v>
       </c>
       <c r="L12" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M12" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N12" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O12" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P12" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q12" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R12" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S12" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T12" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U12" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V12" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W12" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X12" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y12" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z12" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA12" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB12" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC12" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD12" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE12" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF12" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG12" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH12" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI12" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ12" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK12" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL12" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4170,127 +4171,127 @@
         <v>0</v>
       </c>
       <c r="G13" s="5" t="str">
-        <f>IF(E13=F13,"n/a",IF(OR(C13="battery electric vehicle",C13="natural gas vehicle",C13="plugin hybrid vehicle"),"s-curve","linear"))</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
       <c r="I13" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J13" s="15">
-        <f t="shared" ref="J13:AL13" si="3">I13</f>
+        <f t="shared" ref="J13:AL13" si="4">I13</f>
         <v>0</v>
       </c>
       <c r="K13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Z13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AA13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AB13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AC13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AE13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AF13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AG13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AH13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AI13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AJ13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AK13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AL13" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4308,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="5" t="str">
-        <f>IF(E14=F14,"n/a",IF(OR(C14="battery electric vehicle",C14="natural gas vehicle",C14="plugin hybrid vehicle",C14="hydrogen vehicle"),"s-curve","linear"))</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
       <c r="I14" s="21">
@@ -4316,119 +4317,119 @@
         <v>0</v>
       </c>
       <c r="J14" s="15">
-        <f t="shared" ref="J14:AL14" si="4">I14</f>
+        <f t="shared" ref="J14:AL14" si="5">I14</f>
         <v>0</v>
       </c>
       <c r="K14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL14" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4446,7 +4447,7 @@
         <v>0.75</v>
       </c>
       <c r="G15" s="5" t="str">
-        <f>IF(E15=F15,"n/a",IF(OR(C15="electrolysis with guaranteed clean electricity"),"s-curve","linear"))</f>
+        <f>IF(E15=F15,"n/a",IF(OR(C15="electrolysis with guaranteed clean electricity",C15="natural gas reforming with CCS"),"s-curve","linear"))</f>
         <v>s-curve</v>
       </c>
       <c r="I15" s="15">
@@ -4582,132 +4583,132 @@
       <c r="E16" s="25">
         <v>0</v>
       </c>
-      <c r="F16" s="25">
-        <v>0</v>
+      <c r="F16" s="27">
+        <v>0.25</v>
       </c>
       <c r="G16" s="23" t="str">
-        <f>IF(E16=F16,"n/a",IF(OR(C16="battery electric vehicle",C16="natural gas vehicle",C16="plugin hybrid vehicle",C16="hydrogen vehicle"),"s-curve","linear"))</f>
-        <v>n/a</v>
+        <f t="shared" ref="G16" si="6">IF(E16=F16,"n/a",IF(OR(C16="electrolysis with guaranteed clean electricity",C16="natural gas reforming with CCS"),"s-curve","linear"))</f>
+        <v>s-curve</v>
       </c>
       <c r="I16" s="15">
-        <f t="shared" si="1"/>
+        <f>D16</f>
         <v>0</v>
       </c>
       <c r="J16" s="15">
-        <f t="shared" ref="J16:AL16" si="5">I16</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U16" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V16" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W16" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X16" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC16" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE16" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AF16" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AH16" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AI16" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK16" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AL16" s="15">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>E16</f>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($J$9:K$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,K$9))</f>
+        <v>6.6492483942164641E-3</v>
+      </c>
+      <c r="L16">
+        <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($J$9:L$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,L$9))</f>
+        <v>9.791430699191089E-3</v>
+      </c>
+      <c r="M16">
+        <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($J$9:M$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,M$9))</f>
+        <v>1.4331043974717182E-2</v>
+      </c>
+      <c r="N16">
+        <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($J$9:N$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,N$9))</f>
+        <v>2.0793174123480588E-2</v>
+      </c>
+      <c r="O16">
+        <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($J$9:O$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,O$9))</f>
+        <v>2.9800730505529387E-2</v>
+      </c>
+      <c r="P16">
+        <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($J$9:P$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,P$9))</f>
+        <v>4.199540371651888E-2</v>
+      </c>
+      <c r="Q16">
+        <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($J$9:Q$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,Q$9))</f>
+        <v>5.7868804125245581E-2</v>
+      </c>
+      <c r="R16">
+        <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($J$9:R$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,R$9))</f>
+        <v>7.7506379718096888E-2</v>
+      </c>
+      <c r="S16">
+        <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($J$9:S$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,S$9))</f>
+        <v>0.100328084971887</v>
+      </c>
+      <c r="T16">
+        <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($J$9:T$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,T$9))</f>
+        <v>0.125</v>
+      </c>
+      <c r="U16">
+        <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($J$9:U$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,U$9))</f>
+        <v>0.149671915028113</v>
+      </c>
+      <c r="V16">
+        <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($J$9:V$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,V$9))</f>
+        <v>0.17249362028190313</v>
+      </c>
+      <c r="W16">
+        <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($J$9:W$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,W$9))</f>
+        <v>0.19213119587475444</v>
+      </c>
+      <c r="X16">
+        <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($J$9:X$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,X$9))</f>
+        <v>0.20800459628348111</v>
+      </c>
+      <c r="Y16">
+        <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($J$9:Y$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,Y$9))</f>
+        <v>0.22019926949447058</v>
+      </c>
+      <c r="Z16">
+        <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($J$9:Z$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,Z$9))</f>
+        <v>0.22920682587651942</v>
+      </c>
+      <c r="AA16">
+        <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($J$9:AA$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,AA$9))</f>
+        <v>0.23566895602528282</v>
+      </c>
+      <c r="AB16">
+        <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($J$9:AB$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,AB$9))</f>
+        <v>0.24020856930080892</v>
+      </c>
+      <c r="AC16">
+        <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($J$9:AC$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,AC$9))</f>
+        <v>0.24335075160578351</v>
+      </c>
+      <c r="AD16">
+        <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($J$9:AD$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,AD$9))</f>
+        <v>0.24550344750947711</v>
+      </c>
+      <c r="AE16">
+        <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($J$9:AE$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,AE$9))</f>
+        <v>0.24696789125393143</v>
+      </c>
+      <c r="AF16">
+        <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($J$9:AF$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,AF$9))</f>
+        <v>0.24795935721171003</v>
+      </c>
+      <c r="AG16">
+        <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($J$9:AG$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,AG$9))</f>
+        <v>0.24862842527513737</v>
+      </c>
+      <c r="AH16">
+        <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($J$9:AH$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,AH$9))</f>
+        <v>0.24907894002514103</v>
+      </c>
+      <c r="AI16">
+        <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($J$9:AI$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,AI$9))</f>
+        <v>0.24938184421084134</v>
+      </c>
+      <c r="AJ16">
+        <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($J$9:AJ$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,AJ$9))</f>
+        <v>0.24958529972995638</v>
+      </c>
+      <c r="AK16">
+        <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($J$9:AK$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,AK$9))</f>
+        <v>0.24972186599178495</v>
+      </c>
+      <c r="AL16">
+        <f>IF($G16="s-curve",$E16+($F16-$E16)*$I$2/(1+EXP($I$3*(COUNT($J$9:AL$9)+$I$4))),TREND($E16:$F16,$E$9:$F$9,AL$9))</f>
+        <v>0.24981349279154083</v>
       </c>
     </row>
   </sheetData>
@@ -5622,115 +5623,115 @@
       </c>
       <c r="D8" s="20">
         <f>Data!K16</f>
-        <v>0</v>
+        <v>6.6492483942164641E-3</v>
       </c>
       <c r="E8" s="20">
         <f>Data!L16</f>
-        <v>0</v>
+        <v>9.791430699191089E-3</v>
       </c>
       <c r="F8" s="20">
         <f>Data!M16</f>
-        <v>0</v>
+        <v>1.4331043974717182E-2</v>
       </c>
       <c r="G8" s="20">
         <f>Data!N16</f>
-        <v>0</v>
+        <v>2.0793174123480588E-2</v>
       </c>
       <c r="H8" s="20">
         <f>Data!O16</f>
-        <v>0</v>
+        <v>2.9800730505529387E-2</v>
       </c>
       <c r="I8" s="20">
         <f>Data!P16</f>
-        <v>0</v>
+        <v>4.199540371651888E-2</v>
       </c>
       <c r="J8" s="20">
         <f>Data!Q16</f>
-        <v>0</v>
+        <v>5.7868804125245581E-2</v>
       </c>
       <c r="K8" s="20">
         <f>Data!R16</f>
-        <v>0</v>
+        <v>7.7506379718096888E-2</v>
       </c>
       <c r="L8" s="20">
         <f>Data!S16</f>
-        <v>0</v>
+        <v>0.100328084971887</v>
       </c>
       <c r="M8" s="20">
         <f>Data!T16</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="N8" s="20">
         <f>Data!U16</f>
-        <v>0</v>
+        <v>0.149671915028113</v>
       </c>
       <c r="O8" s="20">
         <f>Data!V16</f>
-        <v>0</v>
+        <v>0.17249362028190313</v>
       </c>
       <c r="P8" s="20">
         <f>Data!W16</f>
-        <v>0</v>
+        <v>0.19213119587475444</v>
       </c>
       <c r="Q8" s="20">
         <f>Data!X16</f>
-        <v>0</v>
+        <v>0.20800459628348111</v>
       </c>
       <c r="R8" s="20">
         <f>Data!Y16</f>
-        <v>0</v>
+        <v>0.22019926949447058</v>
       </c>
       <c r="S8" s="20">
         <f>Data!Z16</f>
-        <v>0</v>
+        <v>0.22920682587651942</v>
       </c>
       <c r="T8" s="20">
         <f>Data!AA16</f>
-        <v>0</v>
+        <v>0.23566895602528282</v>
       </c>
       <c r="U8" s="20">
         <f>Data!AB16</f>
-        <v>0</v>
+        <v>0.24020856930080892</v>
       </c>
       <c r="V8" s="20">
         <f>Data!AC16</f>
-        <v>0</v>
+        <v>0.24335075160578351</v>
       </c>
       <c r="W8" s="20">
         <f>Data!AD16</f>
-        <v>0</v>
+        <v>0.24550344750947711</v>
       </c>
       <c r="X8" s="20">
         <f>Data!AE16</f>
-        <v>0</v>
+        <v>0.24696789125393143</v>
       </c>
       <c r="Y8" s="20">
         <f>Data!AF16</f>
-        <v>0</v>
+        <v>0.24795935721171003</v>
       </c>
       <c r="Z8" s="20">
         <f>Data!AG16</f>
-        <v>0</v>
+        <v>0.24862842527513737</v>
       </c>
       <c r="AA8" s="20">
         <f>Data!AH16</f>
-        <v>0</v>
+        <v>0.24907894002514103</v>
       </c>
       <c r="AB8" s="20">
         <f>Data!AI16</f>
-        <v>0</v>
+        <v>0.24938184421084134</v>
       </c>
       <c r="AC8" s="20">
         <f>Data!AJ16</f>
-        <v>0</v>
+        <v>0.24958529972995638</v>
       </c>
       <c r="AD8" s="20">
         <f>Data!AK16</f>
-        <v>0</v>
+        <v>0.24972186599178495</v>
       </c>
       <c r="AE8" s="20">
         <f>Data!AL16</f>
-        <v>0</v>
+        <v>0.24981349279154083</v>
       </c>
     </row>
   </sheetData>
